--- a/ExcelData/TopCitiesDataSheet.xlsx
+++ b/ExcelData/TopCitiesDataSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="7">
   <si>
     <t>Top Cities</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="80">
       <selection activeCell="A5" sqref="A5"/>
@@ -1711,6 +1714,56 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
